--- a/Documents/01 - Project Proposal/ProjectProposal_ChucNangPhanMem.xlsx
+++ b/Documents/01 - Project Proposal/ProjectProposal_ChucNangPhanMem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GocHocTap\HOAN CHINH DAI HOC\Nhap mon cong nghe phan mem\Project\trunk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GocHocTap\HOAN CHINH DAI HOC\Nhap mon cong nghe phan mem\Project\trunk\Documents\01 - Project Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6D6145-2778-4465-9E5D-E60AF0705097}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E23EB-E032-48C1-879B-AA087E8A33D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Tên chức năng</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Chỉ user thuộc Bộ phận Tiếp nhận&amp;Phóng thích và Bộ phận Quản lý mới được phép sử dụng</t>
+  </si>
+  <si>
+    <t>Phân chia lịch trực</t>
+  </si>
+  <si>
+    <t>Phân chia lịch trực từng bộ phận</t>
   </si>
 </sst>
 </file>
@@ -550,9 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -715,6 +723,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
